--- a/result/风险名单产品（2026）.xlsx
+++ b/result/风险名单产品（2026）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12400"/>
+    <workbookView windowWidth="19200" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="风险名单产品" sheetId="1" r:id="rId1"/>
@@ -1848,8 +1848,8 @@
   <sheetPr/>
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.22727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
